--- a/model/房源模板.xlsx
+++ b/model/房源模板.xlsx
@@ -17,6 +17,13 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>房产证号</t>
     </r>
     <r>
@@ -52,7 +59,7 @@
     </r>
   </si>
   <si>
-    <t>园区/楼宇</t>
+    <t>楼宇</t>
   </si>
   <si>
     <t>楼号</t>
@@ -131,6 +138,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>资产类型</t>
     </r>
     <r>
@@ -231,12 +245,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,14 +260,129 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,129 +397,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,12 +415,6 @@
       <name val="宋体 (正文)"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体 (正文)"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -424,187 +425,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,69 +616,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -701,6 +639,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -715,16 +692,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -733,19 +734,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -754,127 +755,124 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1231,7 +1229,7 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
@@ -1342,10 +1340,6 @@
     <row r="3" s="2" customFormat="1" spans="2:14">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -1357,10 +1351,6 @@
     <row r="4" s="2" customFormat="1" spans="2:14">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -1372,10 +1362,6 @@
     <row r="5" s="2" customFormat="1" spans="2:14">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -1387,10 +1373,6 @@
     <row r="6" s="2" customFormat="1" spans="2:14">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -1658,7 +1640,7 @@
       <c r="A22" s="2"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="2"/>
       <c r="F22" s="4"/>
       <c r="G22" s="2"/>
@@ -1674,7 +1656,7 @@
       <c r="A23" s="2"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="2"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1690,7 +1672,7 @@
       <c r="A24" s="2"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="2"/>
       <c r="F24" s="4"/>
       <c r="G24" s="2"/>
@@ -1706,7 +1688,7 @@
       <c r="A25" s="2"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="2"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -1722,7 +1704,7 @@
       <c r="A26" s="2"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="2"/>
       <c r="F26" s="4"/>
       <c r="G26" s="2"/>
@@ -1738,7 +1720,7 @@
       <c r="A27" s="2"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="2"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -1754,7 +1736,7 @@
       <c r="A28" s="2"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="2"/>
       <c r="F28" s="4"/>
       <c r="G28" s="2"/>
@@ -1770,7 +1752,7 @@
       <c r="A29" s="2"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="2"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -1786,7 +1768,7 @@
       <c r="A30" s="2"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
+      <c r="D30" s="4"/>
       <c r="E30" s="2"/>
       <c r="F30" s="4"/>
       <c r="G30" s="2"/>
@@ -1802,7 +1784,7 @@
       <c r="A31" s="2"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="2"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -1818,7 +1800,7 @@
       <c r="A32" s="2"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
+      <c r="D32" s="4"/>
       <c r="E32" s="2"/>
       <c r="F32" s="4"/>
       <c r="G32" s="2"/>
@@ -1834,7 +1816,7 @@
       <c r="A33" s="2"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
+      <c r="D33" s="4"/>
       <c r="E33" s="2"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -1850,7 +1832,7 @@
       <c r="A34" s="2"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
+      <c r="D34" s="4"/>
       <c r="E34" s="2"/>
       <c r="F34" s="4"/>
       <c r="G34" s="2"/>
@@ -1866,7 +1848,7 @@
       <c r="A35" s="2"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
-      <c r="D35" s="5"/>
+      <c r="D35" s="4"/>
       <c r="E35" s="2"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -1882,7 +1864,7 @@
       <c r="A36" s="2"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
-      <c r="D36" s="5"/>
+      <c r="D36" s="4"/>
       <c r="E36" s="2"/>
       <c r="F36" s="4"/>
       <c r="G36" s="2"/>
@@ -1898,7 +1880,7 @@
       <c r="A37" s="2"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
-      <c r="D37" s="5"/>
+      <c r="D37" s="4"/>
       <c r="E37" s="2"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -1914,7 +1896,7 @@
       <c r="A38" s="2"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="5"/>
+      <c r="D38" s="4"/>
       <c r="E38" s="2"/>
       <c r="F38" s="4"/>
       <c r="G38" s="2"/>
@@ -1930,7 +1912,7 @@
       <c r="A39" s="2"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
-      <c r="D39" s="5"/>
+      <c r="D39" s="4"/>
       <c r="E39" s="2"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
